--- a/dataset/webapp-asg/cpu.xlsx
+++ b/dataset/webapp-asg/cpu.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +745,66 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:35:50</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.4918</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:36:56</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.3390000000000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:38:03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.4918</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:39:08</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5085</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:40:14</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:41:22</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/dataset/webapp-asg/cpu.xlsx
+++ b/dataset/webapp-asg/cpu.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,371 +438,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05/26/2021 01:02:40</t>
+          <t>05/26/2021 01:55:54</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:03:41</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:04:43</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6780000000000002</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:05:45</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.3279</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:06:49</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:07:52</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:08:54</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.3333</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:09:57</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:10:59</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.3333</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:12:01</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:13:04</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:14:06</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.3333</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:15:13</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:16:20</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
         <v>0.4918</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:17:24</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.3390000000000001</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:18:29</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:19:32</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.6667000000000001</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:20:36</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.3333</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:21:39</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:22:42</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:23:46</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:24:52</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:25:55</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.3279</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:27:03</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.3333</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:28:07</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:29:12</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:30:18</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.4918</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:31:24</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.5085</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:32:31</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:33:36</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:34:42</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:35:50</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.4918</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:36:56</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.3390000000000001</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:38:03</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.4918</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:39:08</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.5085</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:40:14</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:41:22</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/webapp-asg/cpu.xlsx
+++ b/dataset/webapp-asg/cpu.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B398"/>
+  <dimension ref="A1:B327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06/01/2021 00:56:21</t>
+          <t>06/11/2021 00:11:57</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -448,7 +448,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06/01/2021 00:57:33</t>
+          <t>06/11/2021 00:12:59</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -458,37 +458,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06/01/2021 00:58:45</t>
+          <t>06/11/2021 00:14:01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5833</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06/01/2021 00:59:56</t>
+          <t>06/11/2021 00:15:04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5833</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06/01/2021 01:01:09</t>
+          <t>06/11/2021 00:16:07</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6667000000000001</v>
+        <v>0.3279</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06/01/2021 01:02:19</t>
+          <t>06/11/2021 00:17:11</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -498,7 +498,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>06/01/2021 01:03:31</t>
+          <t>06/11/2021 00:18:14</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -508,17 +508,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>06/01/2021 01:04:43</t>
+          <t>06/11/2021 00:19:17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5042</v>
+        <v>0.4126000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06/01/2021 01:05:56</t>
+          <t>06/11/2021 00:20:19</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -528,407 +528,407 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>06/01/2021 01:07:09</t>
+          <t>06/11/2021 00:21:23</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6667000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>06/01/2021 01:08:21</t>
+          <t>06/11/2021 00:22:29</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4959</v>
+        <v>0.4167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>06/01/2021 01:09:34</t>
+          <t>06/11/2021 00:23:35</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>06/01/2021 01:10:46</t>
+          <t>06/11/2021 00:24:41</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5876</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>06/01/2021 01:11:57</t>
+          <t>06/11/2021 00:25:50</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5792</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06/01/2021 01:16:56</t>
+          <t>06/11/2021 00:26:58</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.589</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>06/01/2021 01:18:13</t>
+          <t>06/11/2021 00:28:07</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6667000000000001</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>06/01/2021 01:19:28</t>
+          <t>06/11/2021 00:29:13</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5001</v>
+        <v>0.4962</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>06/01/2021 01:20:44</t>
+          <t>06/11/2021 00:30:18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.83955</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>06/01/2021 01:21:59</t>
+          <t>06/11/2021 00:31:22</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.63335</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>06/01/2021 01:23:14</t>
+          <t>06/11/2021 00:32:25</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4959</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>06/01/2021 01:24:29</t>
+          <t>06/11/2021 00:33:30</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4584</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>06/01/2021 01:25:46</t>
+          <t>06/11/2021 00:34:35</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.50075</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>06/01/2021 01:27:03</t>
+          <t>06/11/2021 00:35:41</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.50015</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>06/01/2021 01:28:20</t>
+          <t>06/11/2021 00:36:45</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.41665</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>06/01/2021 01:29:36</t>
+          <t>06/11/2021 00:37:48</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4167</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>06/01/2021 01:30:51</t>
+          <t>06/11/2021 00:38:53</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.5008</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>06/01/2021 01:32:08</t>
+          <t>06/11/2021 00:39:57</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.41665</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>06/01/2021 01:33:27</t>
+          <t>06/11/2021 00:41:00</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4583</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>06/01/2021 01:34:43</t>
+          <t>06/11/2021 00:42:09</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5001</v>
+        <v>0.4918</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>06/01/2021 01:35:57</t>
+          <t>06/11/2021 00:43:12</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.45775</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>06/01/2021 01:37:12</t>
+          <t>06/11/2021 00:44:16</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.5</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>06/01/2021 01:38:30</t>
+          <t>06/11/2021 00:45:20</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>06/01/2021 01:39:45</t>
+          <t>06/11/2021 00:46:22</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.5021</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>06/01/2021 01:41:04</t>
+          <t>06/11/2021 00:47:38</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.57785</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>06/01/2021 01:42:21</t>
+          <t>06/11/2021 00:48:46</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.45775</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>06/01/2021 01:43:37</t>
+          <t>06/11/2021 00:49:54</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.41675</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>06/01/2021 01:44:51</t>
+          <t>06/11/2021 00:51:02</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4188</v>
+        <v>0.4918</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>06/01/2021 01:46:09</t>
+          <t>06/11/2021 00:52:05</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3279</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>06/01/2021 01:47:26</t>
+          <t>06/11/2021 00:53:14</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4208999999999999</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>06/01/2021 01:48:44</t>
+          <t>06/11/2021 00:54:26</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3333</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>06/01/2021 01:50:01</t>
+          <t>06/11/2021 00:55:29</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3333</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>06/01/2021 01:51:10</t>
+          <t>06/11/2021 00:56:33</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3279</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>06/01/2021 01:52:24</t>
+          <t>06/11/2021 00:57:36</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4143</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>06/01/2021 01:53:38</t>
+          <t>06/11/2021 00:58:40</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.4114</v>
+        <v>0.4167</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>06/01/2021 01:54:54</t>
+          <t>06/11/2021 00:59:44</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3334</v>
+        <v>0.4167</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>06/01/2021 01:56:10</t>
+          <t>06/11/2021 01:00:50</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.3448</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>06/01/2021 01:57:25</t>
+          <t>06/11/2021 01:01:54</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3280000000000001</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>06/01/2021 01:58:40</t>
+          <t>06/11/2021 01:02:59</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.4155</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>06/01/2021 01:59:55</t>
+          <t>06/11/2021 01:04:03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4208999999999999</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>06/01/2021 02:01:10</t>
+          <t>06/11/2021 01:05:08</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -938,507 +938,507 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>06/01/2021 02:02:25</t>
+          <t>06/11/2021 01:06:13</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.4195</v>
+        <v>0.4918</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>06/01/2021 02:03:42</t>
+          <t>06/11/2021 01:07:18</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.4139</v>
+        <v>0.4182</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>06/01/2021 02:04:58</t>
+          <t>06/11/2021 01:08:23</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.3306</v>
+        <v>0.4226</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>06/01/2021 02:06:13</t>
+          <t>06/11/2021 01:09:29</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.3279</v>
+        <v>0.5006</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>06/01/2021 02:07:30</t>
+          <t>06/11/2021 01:10:34</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.4224</v>
+        <v>0.4962</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>06/01/2021 02:08:43</t>
+          <t>06/11/2021 01:11:39</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.3362999999999999</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>06/01/2021 02:09:56</t>
+          <t>06/11/2021 01:12:47</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.4139</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>06/01/2021 02:11:10</t>
+          <t>06/11/2021 01:13:53</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.4918</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>06/01/2021 02:12:27</t>
+          <t>06/11/2021 01:14:57</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.3390000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>06/01/2021 02:13:44</t>
+          <t>06/11/2021 01:16:05</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.4154</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>06/01/2021 02:14:59</t>
+          <t>06/11/2021 01:17:11</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.4126000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>06/01/2021 02:16:14</t>
+          <t>06/11/2021 01:18:17</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.3390000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>06/01/2021 02:17:30</t>
+          <t>06/11/2021 01:19:24</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.4126000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>06/01/2021 02:18:41</t>
+          <t>06/11/2021 01:20:29</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.3362</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>06/01/2021 02:19:56</t>
+          <t>06/11/2021 01:21:33</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.3334</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>06/01/2021 02:21:10</t>
+          <t>06/11/2021 01:22:37</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.3333</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>06/01/2021 02:22:24</t>
+          <t>06/11/2021 01:23:41</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.4208999999999999</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>06/01/2021 02:23:38</t>
+          <t>06/11/2021 01:24:46</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.4182</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>06/01/2021 02:24:53</t>
+          <t>06/11/2021 01:25:52</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.3306</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>06/01/2021 02:26:10</t>
+          <t>06/11/2021 01:26:58</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.3390000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>06/01/2021 02:27:26</t>
+          <t>06/11/2021 01:28:04</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.3306</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>06/01/2021 02:28:41</t>
+          <t>06/11/2021 01:29:09</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.3333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>06/01/2021 02:29:56</t>
+          <t>06/11/2021 01:30:14</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.3333</v>
+        <v>0.4918</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>06/01/2021 02:31:12</t>
+          <t>06/11/2021 01:31:19</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.5</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>06/01/2021 02:32:28</t>
+          <t>06/11/2021 01:32:24</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.3362999999999999</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>06/01/2021 02:33:41</t>
+          <t>06/11/2021 01:33:29</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.4183</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>06/01/2021 02:34:59</t>
+          <t>06/11/2021 01:34:34</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.4154</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>06/01/2021 02:36:15</t>
+          <t>06/11/2021 01:35:38</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>22.459</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>06/01/2021 02:37:31</t>
+          <t>06/11/2021 01:36:42</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.4167</v>
+        <v>0.4139</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>06/01/2021 02:38:46</t>
+          <t>06/11/2021 01:37:47</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.3362</v>
+        <v>0.4139</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>06/01/2021 02:40:01</t>
+          <t>06/11/2021 01:39:12</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.3279</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>06/01/2021 02:41:16</t>
+          <t>06/11/2021 01:40:33</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.5</v>
+        <v>0.5849</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>06/01/2021 02:42:32</t>
+          <t>06/11/2021 01:41:41</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.3362</v>
+        <v>4.339</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>06/01/2021 02:43:46</t>
+          <t>06/11/2021 01:42:43</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.4114</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>06/01/2021 02:45:01</t>
+          <t>06/11/2021 01:43:45</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.3390000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>06/01/2021 02:46:16</t>
+          <t>06/11/2021 01:44:55</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.3279</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>06/01/2021 02:47:31</t>
+          <t>06/11/2021 01:46:44</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.4237</v>
+        <v>0.4097999999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>06/01/2021 02:48:45</t>
+          <t>06/11/2021 01:48:16</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.3334</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>06/01/2021 02:49:59</t>
+          <t>06/11/2021 01:50:10</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.3306</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>06/01/2021 02:51:13</t>
+          <t>06/11/2021 01:52:08</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.4918</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>06/01/2021 02:52:29</t>
+          <t>06/11/2021 01:53:48</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.4195</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>06/01/2021 02:53:45</t>
+          <t>06/11/2021 01:55:21</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.4139</v>
+        <v>0.4195</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>06/01/2021 02:55:00</t>
+          <t>06/11/2021 01:56:53</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.3390000000000001</v>
+        <v>0.4974</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>06/01/2021 02:56:13</t>
+          <t>06/11/2021 01:58:23</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.4918</v>
+        <v>0.4126000000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>06/01/2021 02:57:28</t>
+          <t>06/11/2021 01:59:54</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.4208999999999999</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>06/01/2021 02:58:42</t>
+          <t>06/11/2021 02:01:20</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.3306</v>
+        <v>0.5779</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>06/01/2021 02:59:58</t>
+          <t>06/11/2021 02:02:51</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.3306</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>06/01/2021 03:01:18</t>
+          <t>06/11/2021 02:04:18</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.5085</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>06/01/2021 03:02:37</t>
+          <t>06/11/2021 02:05:50</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.3333</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>06/01/2021 03:03:51</t>
+          <t>06/11/2021 02:07:15</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.3333</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>06/01/2021 03:05:06</t>
+          <t>06/11/2021 02:08:53</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1448,147 +1448,147 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>06/01/2021 03:06:28</t>
+          <t>06/11/2021 02:10:28</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.3333</v>
+        <v>0.5768</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>06/01/2021 03:07:42</t>
+          <t>06/11/2021 02:11:50</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.3333</v>
+        <v>0.5768</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>06/01/2021 03:08:57</t>
+          <t>06/11/2021 02:13:14</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.3306</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>06/01/2021 03:10:12</t>
+          <t>06/11/2021 02:14:35</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.3333</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>06/01/2021 03:11:28</t>
+          <t>06/11/2021 02:16:05</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.4237</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>06/01/2021 03:12:40</t>
+          <t>06/11/2021 02:17:30</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.4182</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>06/01/2021 03:13:55</t>
+          <t>06/11/2021 02:18:52</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.4139</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>06/01/2021 03:15:13</t>
+          <t>06/11/2021 02:20:22</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.3333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>06/01/2021 03:16:29</t>
+          <t>06/11/2021 02:21:51</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.3333</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>06/01/2021 03:17:49</t>
+          <t>06/11/2021 02:23:14</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.4208999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>06/01/2021 03:19:05</t>
+          <t>06/11/2021 02:24:34</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.3279</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>06/01/2021 03:20:20</t>
+          <t>06/11/2021 02:25:54</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.4167</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>06/01/2021 03:21:33</t>
+          <t>06/11/2021 02:27:28</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.4195</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>06/01/2021 03:22:48</t>
+          <t>06/11/2021 02:28:51</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.4154</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>06/01/2021 03:24:06</t>
+          <t>06/11/2021 02:30:13</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1598,597 +1598,597 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>06/01/2021 03:25:24</t>
+          <t>06/11/2021 02:31:30</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.3306</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>06/01/2021 03:26:41</t>
+          <t>06/11/2021 02:32:54</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.4139</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>06/01/2021 03:27:57</t>
+          <t>06/11/2021 02:34:11</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.4167</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>06/01/2021 03:29:15</t>
+          <t>06/11/2021 02:35:25</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.3333</v>
+        <v>0.4945000000000001</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>06/01/2021 03:30:31</t>
+          <t>06/11/2021 02:36:39</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.4126000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>06/01/2021 03:31:50</t>
+          <t>06/11/2021 02:37:53</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.4183</v>
+        <v>0.5792</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>06/01/2021 03:33:06</t>
+          <t>06/11/2021 02:39:15</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.3333</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>06/01/2021 03:34:22</t>
+          <t>06/11/2021 02:40:27</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.4114</v>
+        <v>0.5044999999999999</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>06/01/2021 03:35:37</t>
+          <t>06/11/2021 02:41:38</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.3362</v>
+        <v>0.5865</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>06/01/2021 03:36:55</t>
+          <t>06/11/2021 02:42:49</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.3333</v>
+        <v>0.5779</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>06/01/2021 03:38:11</t>
+          <t>06/11/2021 02:43:58</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.4918</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>06/01/2021 03:39:27</t>
+          <t>06/11/2021 02:45:17</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.3362</v>
+        <v>0.4918</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>06/01/2021 03:40:45</t>
+          <t>06/11/2021 02:46:24</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.3333</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>06/01/2021 03:42:04</t>
+          <t>06/11/2021 02:47:42</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.5</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>06/01/2021 03:43:21</t>
+          <t>06/11/2021 02:48:54</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.3362</v>
+        <v>0.6709000000000001</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>06/01/2021 03:44:36</t>
+          <t>06/11/2021 02:50:06</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.3334</v>
+        <v>0.8332999999999999</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>06/01/2021 03:45:52</t>
+          <t>06/11/2021 02:51:17</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.3306</v>
+        <v>0.7516000000000002</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>06/01/2021 03:47:09</t>
+          <t>06/11/2021 02:52:26</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.3333</v>
+        <v>0.8336</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>06/01/2021 03:48:26</t>
+          <t>06/11/2021 02:53:39</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.4167</v>
+        <v>0.7432</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>06/01/2021 03:49:42</t>
+          <t>06/11/2021 02:54:50</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.4167</v>
+        <v>0.6723</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>06/01/2021 03:50:58</t>
+          <t>06/11/2021 02:56:07</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.4167</v>
+        <v>0.6556999999999999</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>06/01/2021 03:52:17</t>
+          <t>06/11/2021 02:57:19</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.3362</v>
+        <v>0.6780000000000002</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>06/01/2021 03:53:33</t>
+          <t>06/11/2021 02:58:35</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.3334</v>
+        <v>0.6640999999999999</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>06/01/2021 03:54:48</t>
+          <t>06/11/2021 02:59:53</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.3306</v>
+        <v>0.7432</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>06/01/2021 03:56:04</t>
+          <t>06/11/2021 03:01:20</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.3333</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>06/01/2021 03:57:21</t>
+          <t>06/11/2021 03:02:48</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.4195</v>
+        <v>0.8332999999999999</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>06/01/2021 03:58:39</t>
+          <t>06/11/2021 03:04:18</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.3334</v>
+        <v>0.6612</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>06/01/2021 03:59:57</t>
+          <t>06/11/2021 03:05:43</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.3306</v>
+        <v>0.6727</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>06/01/2021 04:01:13</t>
+          <t>06/11/2021 03:07:06</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.3333</v>
+        <v>0.6556999999999999</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>06/01/2021 04:02:29</t>
+          <t>06/11/2021 03:08:35</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.4139</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>06/01/2021 04:03:47</t>
+          <t>06/11/2021 03:10:04</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.4182</v>
+        <v>0.6780000000000002</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>06/01/2021 04:05:04</t>
+          <t>06/11/2021 03:11:29</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.3333</v>
+        <v>0.7516000000000002</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>06/01/2021 04:06:16</t>
+          <t>06/11/2021 03:12:46</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1.5</v>
+        <v>0.7463</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>06/01/2021 04:07:26</t>
+          <t>06/11/2021 03:14:03</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.7572</v>
+        <v>0.6897</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>06/01/2021 04:12:24</t>
+          <t>06/11/2021 03:15:23</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.4167</v>
+        <v>0.7432</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>06/01/2021 04:13:39</t>
+          <t>06/11/2021 03:16:47</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.4195</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>06/01/2021 04:14:59</t>
+          <t>06/11/2021 03:18:08</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.3362</v>
+        <v>0.6667000000000001</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>06/01/2021 04:16:18</t>
+          <t>06/11/2021 03:19:26</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>31.91255</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>06/01/2021 04:17:34</t>
+          <t>06/11/2021 03:20:44</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.4612999999999999</v>
+        <v>0.7556</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>06/01/2021 04:18:50</t>
+          <t>06/11/2021 03:22:09</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.4612999999999999</v>
+        <v>0.8065000000000001</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>06/01/2021 04:20:05</t>
+          <t>06/11/2021 03:23:22</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.50425</v>
+        <v>0.6723</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>06/01/2021 04:25:15</t>
+          <t>06/11/2021 03:24:34</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.33345</v>
+        <v>0.7570999999999999</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>06/01/2021 04:26:34</t>
+          <t>06/11/2021 03:25:54</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.4591000000000001</v>
+        <v>0.7516000000000002</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>06/01/2021 04:27:56</t>
+          <t>06/11/2021 03:27:08</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>4.3376</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>06/01/2021 04:29:21</t>
+          <t>06/11/2021 03:28:21</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>18.03555</v>
+        <v>0.6612</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>06/01/2021 04:30:40</t>
+          <t>06/11/2021 03:29:34</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.4195</v>
+        <v>1.3333</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>06/01/2021 04:32:00</t>
+          <t>06/11/2021 03:30:36</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.37925</v>
+        <v>1.5833</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>06/01/2021 04:33:14</t>
+          <t>06/11/2021 03:31:40</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.41395</v>
+        <v>0.9167000000000001</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>06/01/2021 04:34:31</t>
+          <t>06/11/2021 03:32:52</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.3333</v>
+        <v>0.6667000000000001</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>06/01/2021 04:35:48</t>
+          <t>06/11/2021 03:34:07</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.3333</v>
+        <v>0.6667000000000001</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>06/01/2021 04:36:57</t>
+          <t>06/11/2021 03:35:31</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.4182</v>
+        <v>0.6723</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>06/01/2021 04:38:13</t>
+          <t>06/11/2021 03:36:54</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.3333</v>
+        <v>0.6612</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>06/01/2021 04:39:26</t>
+          <t>06/11/2021 03:38:15</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.3333</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>06/01/2021 04:40:38</t>
+          <t>06/11/2021 03:39:30</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.5085</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>06/01/2021 04:41:52</t>
+          <t>06/11/2021 03:40:43</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.4139</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>06/01/2021 04:43:05</t>
+          <t>06/11/2021 03:41:56</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.3279</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>06/01/2021 04:44:19</t>
+          <t>06/11/2021 03:43:13</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.3333</v>
+        <v>0.4126000000000001</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>06/01/2021 04:45:33</t>
+          <t>06/11/2021 03:44:28</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.5085</v>
+        <v>0.4167</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>06/01/2021 04:46:48</t>
+          <t>06/11/2021 03:45:43</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.3334</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>06/01/2021 04:48:01</t>
+          <t>06/11/2021 03:47:01</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2198,407 +2198,407 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>06/01/2021 04:49:15</t>
+          <t>06/11/2021 03:48:12</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.5</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>06/01/2021 04:50:27</t>
+          <t>06/11/2021 03:49:28</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.3333</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>06/01/2021 04:51:40</t>
+          <t>06/11/2021 03:50:39</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.3333</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>06/01/2021 04:52:53</t>
+          <t>06/11/2021 03:51:52</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.5</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>06/01/2021 04:54:06</t>
+          <t>06/11/2021 03:53:06</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.5</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>06/01/2021 04:55:22</t>
+          <t>06/11/2021 03:54:19</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.3279</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>06/01/2021 04:56:36</t>
+          <t>06/11/2021 03:55:43</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.3390000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>06/01/2021 04:57:50</t>
+          <t>06/11/2021 03:56:57</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.4167</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>06/01/2021 04:59:02</t>
+          <t>06/11/2021 03:58:10</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.3333</v>
+        <v>0.4918</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>06/01/2021 05:00:15</t>
+          <t>06/11/2021 03:59:28</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.3333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>06/01/2021 05:01:30</t>
+          <t>06/11/2021 04:00:45</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.3390000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>06/01/2021 05:02:44</t>
+          <t>06/11/2021 04:02:02</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.4918</v>
+        <v>0.6556999999999999</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>06/01/2021 05:03:57</t>
+          <t>06/11/2021 04:03:18</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.3306</v>
+        <v>0.5003</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>06/01/2021 05:05:11</t>
+          <t>06/11/2021 04:04:37</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.5</v>
+        <v>0.5779</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>06/01/2021 05:06:25</t>
+          <t>06/11/2021 04:05:55</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.3390000000000001</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>06/01/2021 05:07:42</t>
+          <t>06/11/2021 04:07:12</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.3333</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>06/01/2021 05:08:56</t>
+          <t>06/11/2021 04:08:27</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.4167</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>06/01/2021 05:13:53</t>
+          <t>06/11/2021 04:09:55</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.4114</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>06/01/2021 05:15:10</t>
+          <t>06/11/2021 04:11:14</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.3390000000000001</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>06/01/2021 05:16:29</t>
+          <t>06/11/2021 04:12:29</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.3333</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>06/01/2021 05:21:43</t>
+          <t>06/11/2021 04:13:55</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.41875</v>
+        <v>0.4918</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>06/01/2021 05:23:04</t>
+          <t>06/11/2021 04:15:13</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.4944999999999999</v>
+        <v>0.5172</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>06/01/2021 05:24:23</t>
+          <t>06/11/2021 04:16:26</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.4167</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>06/01/2021 05:29:50</t>
+          <t>06/11/2021 04:17:39</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.4692</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>06/01/2021 05:31:14</t>
+          <t>06/11/2021 04:18:52</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.4431</v>
+        <v>0.4155</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>06/01/2021 05:32:38</t>
+          <t>06/11/2021 04:20:09</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.4737333333333333</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>06/01/2021 05:34:04</t>
+          <t>06/11/2021 04:21:27</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>2.62855</v>
+        <v>0.5821</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>06/01/2021 05:39:50</t>
+          <t>06/11/2021 04:22:42</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.479625</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>06/01/2021 05:41:23</t>
+          <t>06/11/2021 04:23:56</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.770825</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>06/01/2021 05:42:50</t>
+          <t>06/11/2021 04:25:20</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.666675</v>
+        <v>0.4195</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>06/01/2021 05:48:38</t>
+          <t>06/11/2021 04:26:32</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.41864</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>06/01/2021 05:50:05</t>
+          <t>06/11/2021 04:27:48</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.4006</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>06/01/2021 05:51:36</t>
+          <t>06/11/2021 04:29:05</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.496225</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>06/01/2021 05:53:05</t>
+          <t>06/11/2021 04:30:18</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.375825</v>
+        <v>0.4167</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>06/01/2021 05:54:32</t>
+          <t>06/11/2021 04:31:36</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.375825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>06/01/2021 05:55:48</t>
+          <t>06/11/2021 04:32:49</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.3607</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>06/01/2021 05:57:11</t>
+          <t>06/11/2021 04:34:06</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.4153</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>06/01/2021 05:58:25</t>
+          <t>06/11/2021 04:35:26</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.4144333333333334</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>06/01/2021 05:59:47</t>
+          <t>06/11/2021 04:36:47</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.4216</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>06/01/2021 06:01:11</t>
+          <t>06/11/2021 04:38:12</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.5</v>
+        <v>0.4918</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>06/01/2021 06:02:33</t>
+          <t>06/11/2021 04:39:28</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -2608,7 +2608,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>06/01/2021 06:07:41</t>
+          <t>06/11/2021 04:40:44</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2618,887 +2618,887 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>06/01/2021 06:09:01</t>
+          <t>06/11/2021 04:41:59</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.41255</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>06/01/2021 06:10:22</t>
+          <t>06/11/2021 04:43:21</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.5</v>
+        <v>0.5044999999999999</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>06/01/2021 06:11:43</t>
+          <t>06/11/2021 04:44:43</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>16.5</v>
+        <v>0.4918</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>06/01/2021 06:13:01</t>
+          <t>06/11/2021 04:45:57</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.3907666666666667</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>06/01/2021 06:14:24</t>
+          <t>06/11/2021 04:47:11</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.4724333333333333</v>
+        <v>0.5833</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>06/01/2021 06:15:47</t>
+          <t>06/11/2021 04:48:29</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.4177333333333333</v>
+        <v>0.5833</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>06/01/2021 06:17:06</t>
+          <t>06/11/2021 04:49:51</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.3631333333333333</v>
+        <v>0.4167</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>06/01/2021 06:18:25</t>
+          <t>06/11/2021 04:51:18</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.5224</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>06/01/2021 06:19:46</t>
+          <t>06/11/2021 04:52:39</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.3772</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>06/01/2021 06:21:06</t>
+          <t>06/11/2021 04:53:55</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.3772</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>06/01/2021 06:22:15</t>
+          <t>06/11/2021 04:55:16</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.46195</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>06/01/2021 06:23:33</t>
+          <t>06/11/2021 04:56:41</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.3362</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>06/01/2021 06:24:51</t>
+          <t>06/11/2021 04:57:59</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.4167</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>06/01/2021 06:26:10</t>
+          <t>06/11/2021 04:59:14</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.4167</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>06/01/2021 06:31:07</t>
+          <t>06/11/2021 05:00:36</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.4918</v>
+        <v>0.4195</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>06/01/2021 06:32:25</t>
+          <t>06/11/2021 05:01:54</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.4208999999999999</v>
+        <v>0.4921</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>06/01/2021 06:33:46</t>
+          <t>06/11/2021 05:03:17</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.3333</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>06/01/2021 06:38:56</t>
+          <t>06/11/2021 05:04:36</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.45915</v>
+        <v>0.4167</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>06/01/2021 06:40:15</t>
+          <t>06/11/2021 05:05:51</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.3348</v>
+        <v>0.4945000000000001</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>06/01/2021 06:41:36</t>
+          <t>06/11/2021 05:07:09</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.45705</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>06/01/2021 06:42:59</t>
+          <t>06/11/2021 05:08:28</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>20.19256666666667</v>
+        <v>0.4183</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>06/01/2021 06:48:24</t>
+          <t>06/11/2021 05:09:57</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.4144333333333334</v>
+        <v>0.4224</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>06/01/2021 06:49:51</t>
+          <t>06/11/2021 05:11:24</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.4463666666666666</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>06/01/2021 06:51:20</t>
+          <t>06/11/2021 05:12:55</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.4180666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>06/01/2021 06:57:06</t>
+          <t>06/11/2021 05:14:18</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.4734</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>06/01/2021 06:58:37</t>
+          <t>06/11/2021 05:15:52</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.482375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>06/01/2021 07:00:07</t>
+          <t>06/11/2021 05:17:15</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.460475</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>06/01/2021 07:05:57</t>
+          <t>06/11/2021 05:18:40</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.4306</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>06/01/2021 07:07:24</t>
+          <t>06/11/2021 05:19:56</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.45314</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>06/01/2021 07:08:54</t>
+          <t>06/11/2021 05:21:20</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.457325</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>06/01/2021 07:10:21</t>
+          <t>06/11/2021 05:22:42</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.415</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>06/01/2021 07:11:48</t>
+          <t>06/11/2021 05:23:57</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.416725</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>06/01/2021 07:13:16</t>
+          <t>06/11/2021 05:25:11</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.417075</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>06/01/2021 07:14:33</t>
+          <t>06/11/2021 05:26:28</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.4463333333333334</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>06/01/2021 07:15:58</t>
+          <t>06/11/2021 05:27:51</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.4444666666666667</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>06/01/2021 07:17:14</t>
+          <t>06/11/2021 05:29:12</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.4723333333333334</v>
+        <v>0.3390000000000001</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>06/01/2021 07:18:33</t>
+          <t>06/11/2021 05:30:35</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>5.833299999999999</v>
+        <v>0.5821</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>06/01/2021 07:19:52</t>
+          <t>06/11/2021 05:31:58</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>5.83275</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>06/01/2021 07:21:13</t>
+          <t>06/11/2021 05:33:13</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.41955</v>
+        <v>0.4918</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>06/01/2021 07:22:50</t>
+          <t>06/11/2021 05:34:39</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.3333</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>06/01/2021 07:28:06</t>
+          <t>06/11/2021 05:35:59</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.41255</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>06/01/2021 07:29:26</t>
+          <t>06/11/2021 05:37:18</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.41665</v>
+        <v>0.4974</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>06/01/2021 07:30:48</t>
+          <t>06/11/2021 05:38:40</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.70835</v>
+        <v>0.5821</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>06/01/2021 07:36:21</t>
+          <t>06/11/2021 05:40:01</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.4214666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>06/01/2021 07:37:46</t>
+          <t>06/11/2021 05:41:19</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.4463666666666666</v>
+        <v>0.4962</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>06/01/2021 07:39:12</t>
+          <t>06/11/2021 05:42:39</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.4750666666666667</v>
+        <v>0.4208999999999999</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>06/01/2021 07:40:38</t>
+          <t>06/11/2021 05:44:02</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>14.6987</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>06/01/2021 07:46:04</t>
+          <t>06/11/2021 05:45:21</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.4945333333333334</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>06/01/2021 07:47:27</t>
+          <t>06/11/2021 05:46:51</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.4195000000000001</v>
+        <v>0.4167</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>06/01/2021 07:48:49</t>
+          <t>06/11/2021 05:48:10</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.4430666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>06/01/2021 07:50:14</t>
+          <t>06/11/2021 05:49:31</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>18.04293333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>06/01/2021 07:51:37</t>
+          <t>06/11/2021 05:50:52</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>18.04293333333333</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>06/01/2021 07:52:49</t>
+          <t>06/11/2021 05:52:23</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.4750333333333333</v>
+        <v>0.4195</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>06/01/2021 07:54:08</t>
+          <t>06/11/2021 05:53:52</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.5528333333333334</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>06/01/2021 07:55:28</t>
+          <t>06/11/2021 05:55:15</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.4714333333333333</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>06/01/2021 07:56:48</t>
+          <t>06/11/2021 05:56:37</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.58485</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>06/01/2021 07:58:08</t>
+          <t>06/11/2021 05:57:56</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.4959</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>06/01/2021 08:03:28</t>
+          <t>06/11/2021 05:59:33</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.49815</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>06/01/2021 08:05:05</t>
+          <t>06/11/2021 06:00:55</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.5821</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>06/01/2021 08:06:39</t>
+          <t>06/11/2021 06:02:16</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.4973</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>06/01/2021 08:12:12</t>
+          <t>06/11/2021 06:03:31</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.5001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>06/01/2021 08:13:45</t>
+          <t>06/11/2021 06:05:01</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.4435666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>06/01/2021 08:15:17</t>
+          <t>06/11/2021 06:06:42</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.4500999999999999</v>
+        <v>0.5833</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>06/01/2021 08:16:53</t>
+          <t>06/11/2021 06:08:18</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>5.1837</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>06/01/2021 08:18:26</t>
+          <t>06/11/2021 06:09:51</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.4157</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>06/01/2021 08:20:00</t>
+          <t>06/11/2021 06:11:01</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.49795</v>
+        <v>0.4918</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>06/01/2021 08:21:26</t>
+          <t>06/11/2021 06:12:41</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.4386</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>06/01/2021 08:22:51</t>
+          <t>06/11/2021 06:14:05</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.438275</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>06/01/2021 08:24:17</t>
+          <t>06/11/2021 06:15:32</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.4444333333333333</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>06/01/2021 08:25:41</t>
+          <t>06/11/2021 06:17:05</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.4444333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>06/01/2021 08:26:53</t>
+          <t>06/11/2021 06:19:04</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.6111666666666666</v>
+        <v>0.3279</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>06/01/2021 08:28:25</t>
+          <t>06/11/2021 06:20:31</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>06/01/2021 08:29:44</t>
+          <t>06/11/2021 06:22:03</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.4121666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>06/01/2021 08:31:04</t>
+          <t>06/11/2021 06:23:42</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.3946</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>06/01/2021 08:32:25</t>
+          <t>06/11/2021 06:25:29</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.4569499999999999</v>
+        <v>0.4974</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>06/01/2021 08:33:45</t>
+          <t>06/11/2021 06:26:58</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.37575</v>
+        <v>0.4945000000000001</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>06/01/2021 08:35:04</t>
+          <t>06/11/2021 06:28:37</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.37575</v>
+        <v>0.5833</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>06/01/2021 08:36:17</t>
+          <t>06/11/2021 06:30:31</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.3279</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>06/01/2021 08:37:45</t>
+          <t>06/11/2021 06:32:20</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.3279</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>06/01/2021 08:39:01</t>
+          <t>06/11/2021 06:33:53</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.3333</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>06/01/2021 08:40:23</t>
+          <t>06/11/2021 06:35:22</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.4154</v>
+        <v>0.5876</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>06/01/2021 08:41:43</t>
+          <t>06/11/2021 06:37:20</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.4195</v>
+        <v>0.4918</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>06/01/2021 08:43:03</t>
+          <t>06/11/2021 06:39:08</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.3333</v>
+        <v>0.3390000000000001</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>06/01/2021 08:44:24</t>
+          <t>06/11/2021 06:40:46</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.4154</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>06/01/2021 08:45:47</t>
+          <t>06/11/2021 06:42:14</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.4195</v>
+        <v>0.4921</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>06/01/2021 08:47:06</t>
+          <t>06/11/2021 06:44:06</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.3390000000000001</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>06/01/2021 08:48:29</t>
+          <t>06/11/2021 06:46:02</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.4126000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>06/01/2021 08:49:53</t>
+          <t>06/11/2021 06:47:55</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.4167</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>06/01/2021 08:51:18</t>
+          <t>06/11/2021 06:49:49</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -3508,901 +3508,191 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>06/01/2021 08:52:40</t>
+          <t>06/11/2021 06:51:36</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.4208999999999999</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>06/01/2021 08:54:00</t>
+          <t>06/11/2021 06:53:04</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.4918</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>06/01/2021 08:55:21</t>
+          <t>06/11/2021 06:54:35</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.3362</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>06/01/2021 09:00:27</t>
+          <t>06/11/2021 06:56:06</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.4167</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>06/01/2021 09:01:58</t>
+          <t>06/11/2021 06:57:34</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.4167</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>06/01/2021 09:03:24</t>
+          <t>06/11/2021 06:58:59</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.3333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>06/01/2021 09:08:47</t>
+          <t>06/11/2021 07:00:30</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.45835</v>
+        <v>0.4126000000000001</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>06/01/2021 09:10:08</t>
+          <t>06/11/2021 07:01:56</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.41255</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>06/01/2021 09:11:28</t>
+          <t>06/11/2021 07:03:30</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.3758000000000001</v>
+        <v>0.5821</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>06/01/2021 09:12:50</t>
+          <t>06/11/2021 07:05:09</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>39.37295</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>06/01/2021 09:14:11</t>
+          <t>06/11/2021 07:06:49</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.46045</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>06/01/2021 09:15:31</t>
+          <t>06/11/2021 07:07:55</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.41665</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>06/01/2021 09:16:44</t>
+          <t>06/11/2021 07:09:53</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.37785</v>
+        <v>0.4237</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>06/01/2021 09:18:02</t>
+          <t>06/11/2021 07:11:37</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.41665</v>
+        <v>0.4919</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>06/01/2021 09:19:18</t>
+          <t>06/11/2021 07:12:54</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.3333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>06/01/2021 09:20:39</t>
+          <t>06/11/2021 07:14:39</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.4126000000000001</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>06/01/2021 09:25:44</t>
+          <t>06/11/2021 07:16:16</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.4126000000000001</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>06/01/2021 09:27:05</t>
+          <t>06/11/2021 07:17:58</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.3390000000000001</v>
+        <v>0.6625999999999999</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>06/01/2021 09:28:27</t>
+          <t>06/11/2021 07:19:29</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.4167</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:33:43</t>
-        </is>
-      </c>
-      <c r="B328" t="n">
-        <v>0.37435</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:35:11</t>
-        </is>
-      </c>
-      <c r="B329" t="n">
-        <v>5.9626</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:36:36</t>
-        </is>
-      </c>
-      <c r="B330" t="n">
-        <v>0.45425</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:42:09</t>
-        </is>
-      </c>
-      <c r="B331" t="n">
-        <v>0.5056666666666666</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:43:33</t>
-        </is>
-      </c>
-      <c r="B332" t="n">
-        <v>0.4166333333333333</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:44:58</t>
-        </is>
-      </c>
-      <c r="B333" t="n">
-        <v>0.45835</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:46:22</t>
-        </is>
-      </c>
-      <c r="B334" t="n">
-        <v>26.14483333333333</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:47:34</t>
-        </is>
-      </c>
-      <c r="B335" t="n">
-        <v>0.5278333333333333</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:48:54</t>
-        </is>
-      </c>
-      <c r="B336" t="n">
-        <v>0.4713666666666668</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:50:16</t>
-        </is>
-      </c>
-      <c r="B337" t="n">
-        <v>0.54245</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:51:37</t>
-        </is>
-      </c>
-      <c r="B338" t="n">
-        <v>0.54245</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:52:46</t>
-        </is>
-      </c>
-      <c r="B339" t="n">
-        <v>0.54375</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:54:10</t>
-        </is>
-      </c>
-      <c r="B340" t="n">
-        <v>0.4959</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:55:29</t>
-        </is>
-      </c>
-      <c r="B341" t="n">
-        <v>0.4959</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:00:34</t>
-        </is>
-      </c>
-      <c r="B342" t="n">
-        <v>0.5833</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:01:51</t>
-        </is>
-      </c>
-      <c r="B343" t="n">
-        <v>0.5833</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:03:08</t>
-        </is>
-      </c>
-      <c r="B344" t="n">
-        <v>0.8332999999999999</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:04:35</t>
-        </is>
-      </c>
-      <c r="B345" t="n">
-        <v>26.0834</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:05:52</t>
-        </is>
-      </c>
-      <c r="B346" t="n">
-        <v>6.21045</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:07:10</t>
-        </is>
-      </c>
-      <c r="B347" t="n">
-        <v>0.54165</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:08:31</t>
-        </is>
-      </c>
-      <c r="B348" t="n">
-        <v>0.5021</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:09:53</t>
-        </is>
-      </c>
-      <c r="B349" t="n">
-        <v>0.5417000000000001</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:11:19</t>
-        </is>
-      </c>
-      <c r="B350" t="n">
-        <v>0.5849</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:12:43</t>
-        </is>
-      </c>
-      <c r="B351" t="n">
-        <v>0.54595</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:13:59</t>
-        </is>
-      </c>
-      <c r="B352" t="n">
-        <v>0.5396000000000001</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:15:21</t>
-        </is>
-      </c>
-      <c r="B353" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:16:42</t>
-        </is>
-      </c>
-      <c r="B354" t="n">
-        <v>0.49725</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:18:01</t>
-        </is>
-      </c>
-      <c r="B355" t="n">
-        <v>0.9322</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:19:19</t>
-        </is>
-      </c>
-      <c r="B356" t="n">
-        <v>5.7849</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:20:37</t>
-        </is>
-      </c>
-      <c r="B357" t="n">
-        <v>0.5042</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:21:59</t>
-        </is>
-      </c>
-      <c r="B358" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:23:22</t>
-        </is>
-      </c>
-      <c r="B359" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:24:47</t>
-        </is>
-      </c>
-      <c r="B360" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:26:01</t>
-        </is>
-      </c>
-      <c r="B361" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:27:18</t>
-        </is>
-      </c>
-      <c r="B362" t="n">
-        <v>0.5833</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:28:38</t>
-        </is>
-      </c>
-      <c r="B363" t="n">
-        <v>0.4959</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:29:59</t>
-        </is>
-      </c>
-      <c r="B364" t="n">
         <v>0.5001</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:31:26</t>
-        </is>
-      </c>
-      <c r="B365" t="n">
-        <v>0.5833</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:32:48</t>
-        </is>
-      </c>
-      <c r="B366" t="n">
-        <v>0.4959</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:34:11</t>
-        </is>
-      </c>
-      <c r="B367" t="n">
-        <v>0.5085</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:35:33</t>
-        </is>
-      </c>
-      <c r="B368" t="n">
-        <v>0.4878</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:36:54</t>
-        </is>
-      </c>
-      <c r="B369" t="n">
-        <v>0.5051</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:38:22</t>
-        </is>
-      </c>
-      <c r="B370" t="n">
-        <v>0.5001</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:39:44</t>
-        </is>
-      </c>
-      <c r="B371" t="n">
-        <v>0.5042</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:41:06</t>
-        </is>
-      </c>
-      <c r="B372" t="n">
-        <v>0.6667000000000001</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:42:28</t>
-        </is>
-      </c>
-      <c r="B373" t="n">
-        <v>0.5001</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:43:49</t>
-        </is>
-      </c>
-      <c r="B374" t="n">
-        <v>0.5042</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:45:15</t>
-        </is>
-      </c>
-      <c r="B375" t="n">
-        <v>11.6709</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:46:41</t>
-        </is>
-      </c>
-      <c r="B376" t="n">
-        <v>0.5042</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:48:00</t>
-        </is>
-      </c>
-      <c r="B377" t="n">
-        <v>0.4918</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:49:19</t>
-        </is>
-      </c>
-      <c r="B378" t="n">
-        <v>0.6667000000000001</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:50:37</t>
-        </is>
-      </c>
-      <c r="B379" t="n">
-        <v>0.5833</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:51:51</t>
-        </is>
-      </c>
-      <c r="B380" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:53:12</t>
-        </is>
-      </c>
-      <c r="B381" t="n">
-        <v>0.6667000000000001</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:54:34</t>
-        </is>
-      </c>
-      <c r="B382" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:55:53</t>
-        </is>
-      </c>
-      <c r="B383" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:57:13</t>
-        </is>
-      </c>
-      <c r="B384" t="n">
-        <v>0.6667000000000001</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:58:36</t>
-        </is>
-      </c>
-      <c r="B385" t="n">
-        <v>0.5001</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:59:57</t>
-        </is>
-      </c>
-      <c r="B386" t="n">
-        <v>0.5042</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:01:25</t>
-        </is>
-      </c>
-      <c r="B387" t="n">
-        <v>0.5001</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:02:48</t>
-        </is>
-      </c>
-      <c r="B388" t="n">
-        <v>0.4959</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:04:12</t>
-        </is>
-      </c>
-      <c r="B389" t="n">
-        <v>0.4918</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:09:28</t>
-        </is>
-      </c>
-      <c r="B390" t="n">
-        <v>0.4167</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:11:01</t>
-        </is>
-      </c>
-      <c r="B391" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:12:21</t>
-        </is>
-      </c>
-      <c r="B392" t="n">
-        <v>0.5833</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:17:49</t>
-        </is>
-      </c>
-      <c r="B393" t="n">
-        <v>0.54165</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:19:10</t>
-        </is>
-      </c>
-      <c r="B394" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:20:31</t>
-        </is>
-      </c>
-      <c r="B395" t="n">
-        <v>0.5459000000000001</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:21:53</t>
-        </is>
-      </c>
-      <c r="B396" t="n">
-        <v>27.03155</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:23:13</t>
-        </is>
-      </c>
-      <c r="B397" t="n">
-        <v>0.6335</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:24:36</t>
-        </is>
-      </c>
-      <c r="B398" t="n">
-        <v>0.66325</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/webapp-asg/cpu.xlsx
+++ b/dataset/webapp-asg/cpu.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B327"/>
+  <dimension ref="A1:B492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3695,6 +3695,1656 @@
         <v>0.5001</v>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:21:13</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:22:23</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:24:10</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:26:05</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>0.6667000000000001</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:27:39</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>0.5042</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:29:27</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>0.4139</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:30:57</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:32:32</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:34:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>0.5085</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:35:33</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0.4139</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:37:05</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.6780000000000002</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:38:36</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0.4919</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:40:08</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>0.5172</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:41:45</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>0.4959</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:43:16</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0.4126000000000001</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:44:56</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:46:33</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0.4154</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:48:10</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:49:50</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>0.5833</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:51:24</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:53:03</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>0.5085</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:54:54</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0.4973</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:56:03</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>0.3390000000000001</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:57:53</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>0.5779</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:59:48</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>0.4167</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:01:01</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:02:57</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:04:54</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:06:01</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:07:14</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:08:24</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>0.5042</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:10:21</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>0.4959</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:11:54</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>0.4959</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:13:48</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>0.4154</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:15:44</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>0.4183</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:17:35</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>0.5738</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:19:27</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>0.4195</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:21:07</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:22:41</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:24:34</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:26:06</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:27:43</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>0.4183</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:29:03</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>0.4918</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:30:27</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:31:47</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>0.5042</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:33:24</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>0.4182</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:34:43</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:36:13</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>0.4195</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:37:31</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>0.4195</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:38:54</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:40:19</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>0.5821</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:41:45</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0.5042</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:43:04</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>0.4918</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:44:22</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>0.4195</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:45:45</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>0.4959</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:47:10</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>0.5085</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:48:34</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>0.4182</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:49:52</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>0.4097999999999999</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:51:12</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>0.6780000000000002</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:52:27</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>0.4167</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:54:23</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:55:52</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:57:13</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:58:31</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>0.4195</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:00:01</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:01:55</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>0.4962</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:03:47</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>0.4959</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:05:41</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>0.5006</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:07:26</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>0.5086000000000001</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:09:14</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>0.5006</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:11:01</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>0.4918</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:12:38</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:14:05</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>0.3390000000000001</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:15:33</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>0.4959</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:16:40</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>0.4918</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:17:55</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>0.4154</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:19:17</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:20:37</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:22:20</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>0.4959</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:23:53</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:25:37</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:27:14</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:28:43</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>0.4167</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:30:19</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>0.5042</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:31:57</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:33:39</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:35:12</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:36:52</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:38:37</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>0.4167</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:40:36</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:42:19</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:44:01</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:45:50</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>0.4167</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:47:33</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>0.4959</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:49:16</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>0.4208999999999999</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:53:00</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>0.4918</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:54:59</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>0.5042</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:56:25</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:57:43</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>0.5042</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:59:09</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>0.4918</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:00:36</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>0.5042</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:02:02</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>0.4918</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:03:25</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:04:50</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>0.4208999999999999</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:06:09</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:07:35</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>0.5042</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:08:53</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>0.4962</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:10:11</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>0.3390000000000001</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:11:38</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:13:04</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>0.5085</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:14:19</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:15:33</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>0.4962</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:17:06</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>0.3390000000000001</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:18:26</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:19:42</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>0.4918</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:20:55</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:22:09</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:23:20</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>0.4959</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:25:46</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>0.4226</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:27:01</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>0.6667000000000001</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:28:29</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>0.4167</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:29:56</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:31:18</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>0.4959</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:32:51</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:34:50</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:36:31</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>0.4195</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:37:52</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>0.4919</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:39:15</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>0.5042</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:40:55</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>0.4167</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:42:09</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>0.4918</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:43:39</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>0.5042</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:45:12</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:48:22</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:49:47</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>0.4959</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:51:14</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:53:10</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>0.5085</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:54:37</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>0.4959</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:56:15</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>0.5042</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:57:40</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>0.4167</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:00:13</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:01:47</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>0.6598000000000001</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:05:15</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:06:52</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>0.5042</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:08:31</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>0.4959</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:10:44</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>0.5042</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:14:36</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>0.4139</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:16:21</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>0.5042</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:18:29</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>0.4154</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:21:14</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>0.6556999999999999</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:22:52</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:25:08</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>0.5085</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:26:51</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>0.4959</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:28:17</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:29:47</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:32:52</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:35:13</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>0.4918</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:36:52</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>0.5042</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:38:18</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>0.4959</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:41:07</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>0.5085</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:45:02</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:46:51</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0.5044999999999999</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:49:28</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:51:53</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>0.5001</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:54:43</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>0.4139</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:58:43</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
